--- a/biology/Histoire de la zoologie et de la botanique/Michel_Delsol/Michel_Delsol.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michel_Delsol/Michel_Delsol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Delsol, né le 5 août 1922 à Montignac et mort le 11 mai 2012 dans sa commune natale, est un herpétologiste, spécialiste des batraciens, et un biologiste de l'évolution français[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Delsol, né le 5 août 1922 à Montignac et mort le 11 mai 2012 dans sa commune natale, est un herpétologiste, spécialiste des batraciens, et un biologiste de l'évolution français,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut un grand zoologue ayant contribué à  établir la validité de la théorie darwinienne de l'évolution , spécialiste des batraciens , père de la philosophe Chantal Delsol et de l'avocat Jean-Philippe Delsol.
 </t>
@@ -542,12 +556,14 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michel Delsol, Jean-Marie Exbrayat, Janine Flatin et Jean Lescure, « Particularités du groupe des Batraciens Apodes », Bulletin mensuel de la Société linnéenne de Lyon, vol. 49, no 6,‎ juin 1980, p. 370-379 (ISSN 0366-1326, DOI 10.3406/linly.1980.10433, lire en ligne)
 Pierre-Paul Grassé (dir.) et Michel Delsol (dir.), Traité de Zoologie, t. XIV fasc. 1 A : Amphibiens : Anatomie et physiologie comparées de l'adulte et de la larve, la métamorphose et son déterminisme, appareil uro-génital (1ère partie) : anatomie, systématique, biologie, Paris, Masson, 1995, 1355 p., relié, 25 cm (ISBN 2-225-80162-2, OCLC 34944609, BNF 35822443, SUDOC 003879852).
 Pierre-Paul Grassé (dir.) et Michel Delsol (dir.), Traité de Zoologie, t. XIV fasc. 1 B : Batraciens : appareil uro-génital (suite), embryogenèse, éthologie, origine, évolution, systématique, Paris, Masson, 1986, 828 p., relié, 25 cm (ISBN 2-225-66858-2, OCLC 490493932, SUDOC 019972261).
-Michel Delsol (avec la collaboration de Philippe Sentis et Janine Flatin, préface de Maxime Lamotte), L'Évolution biologique en vingt propositions - Essai d'analyse épistémologique de la théorie synthétique de l'Evolution, J. Vrin, Paris et Institut interdisciplinaire d'études épistémologiques, Lyon, 1991, iv + 849 p.  (ISBN 2-7116-9711-8)[3]
+Michel Delsol (avec la collaboration de Philippe Sentis et Janine Flatin, préface de Maxime Lamotte), L'Évolution biologique en vingt propositions - Essai d'analyse épistémologique de la théorie synthétique de l'Evolution, J. Vrin, Paris et Institut interdisciplinaire d'études épistémologiques, Lyon, 1991, iv + 849 p.  (ISBN 2-7116-9711-8)
 Michel Delsol, Philippe Sentis et Janine Flatin, « Essai d'analyse épistémologique de la théorie synthétique de l'évolution », médecine/sciences, vol. 8, no 10,‎ décembre 1992, p. 1079-1087 (ISSN 0767-0974, lire en ligne [PDF])
 Michel Delsol &amp; Jean-Marie Exbrayat, L'Évolution Biologique - Faits - Théories - Épistémologie - Philosophie, J. Vrin, Paris et Institut interdisciplinaire d'études épistémologiques, Lyon, 2002.
 Tome I : Les Preuves de l'Évolution - Les Origines de la Vie - Histoire Évolutive des Êtres Vivants, 371 p.  (ISBN 2-910-425-18-5)
